--- a/REGULAR/OJT/FERMA, MA. VICTORIA.xlsx
+++ b/REGULAR/OJT/FERMA, MA. VICTORIA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B0B861-1D22-45E4-ACF6-9F10375FDCC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="415">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1284,7 +1283,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1959,7 +1958,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1976,25 +1975,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K712" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K712" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2301,34 +2300,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K712"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="1716" topLeftCell="A690" activePane="bottomLeft"/>
+      <pane ySplit="1710" topLeftCell="A690" activePane="bottomLeft"/>
       <selection activeCell="M5" sqref="M5"/>
-      <selection pane="bottomLeft" activeCell="H707" sqref="H707"/>
+      <selection pane="bottomLeft" activeCell="I707" sqref="I707"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="29.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="29.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2349,7 +2348,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2367,7 +2366,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2387,7 +2386,7 @@
       <c r="J4" s="54"/>
       <c r="K4" s="55"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2395,7 +2394,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2408,7 +2407,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="52" t="s">
@@ -2425,7 +2424,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2460,7 +2459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2469,7 +2468,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>57.941000000000088</v>
+        <v>59.191000000000088</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2479,12 +2478,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>55.5</v>
+        <v>55.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>87</v>
       </c>
@@ -2499,7 +2498,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>34366</v>
       </c>
@@ -2525,7 +2524,7 @@
         <v>34385</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
       <c r="B12" s="20" t="s">
         <v>49</v>
@@ -2547,7 +2546,7 @@
         <v>34386</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>34394</v>
       </c>
@@ -2567,7 +2566,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>34425</v>
       </c>
@@ -2593,7 +2592,7 @@
         <v>34430</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>34455</v>
       </c>
@@ -2613,7 +2612,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <v>34486</v>
       </c>
@@ -2633,7 +2632,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <v>34516</v>
       </c>
@@ -2653,7 +2652,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <v>34547</v>
       </c>
@@ -2679,7 +2678,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <v>34578</v>
       </c>
@@ -2705,7 +2704,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
       <c r="B20" s="20" t="s">
         <v>62</v>
@@ -2727,7 +2726,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <v>34608</v>
       </c>
@@ -2747,7 +2746,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <v>34639</v>
       </c>
@@ -2767,7 +2766,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <v>34669</v>
       </c>
@@ -2787,7 +2786,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="47" t="s">
         <v>88</v>
       </c>
@@ -2809,7 +2808,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <v>34700</v>
       </c>
@@ -2829,7 +2828,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <v>34731</v>
       </c>
@@ -2849,7 +2848,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <v>34759</v>
       </c>
@@ -2869,7 +2868,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <v>34790</v>
       </c>
@@ -2889,7 +2888,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <v>34820</v>
       </c>
@@ -2913,7 +2912,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <v>34851</v>
       </c>
@@ -2933,7 +2932,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <v>34881</v>
       </c>
@@ -2959,7 +2958,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="23"/>
       <c r="B32" s="20" t="s">
         <v>47</v>
@@ -2978,7 +2977,7 @@
         <v>34899</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <v>34912</v>
       </c>
@@ -3004,7 +3003,7 @@
         <v>34934</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <v>34943</v>
       </c>
@@ -3030,7 +3029,7 @@
         <v>34947</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <v>34973</v>
       </c>
@@ -3056,7 +3055,7 @@
         <v>34995</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
         <v>35004</v>
       </c>
@@ -3076,7 +3075,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <v>35034</v>
       </c>
@@ -3102,7 +3101,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="47" t="s">
         <v>89</v>
       </c>
@@ -3124,7 +3123,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
         <v>35065</v>
       </c>
@@ -3150,7 +3149,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <v>35096</v>
       </c>
@@ -3170,7 +3169,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <v>35125</v>
       </c>
@@ -3196,7 +3195,7 @@
         <v>35132</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <v>35156</v>
       </c>
@@ -3216,7 +3215,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
         <v>35186</v>
       </c>
@@ -3242,7 +3241,7 @@
         <v>35206</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23">
         <v>35217</v>
       </c>
@@ -3268,7 +3267,7 @@
         <v>35223</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <v>35247</v>
       </c>
@@ -3288,7 +3287,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <v>35278</v>
       </c>
@@ -3308,7 +3307,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23">
         <v>35309</v>
       </c>
@@ -3332,7 +3331,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23"/>
       <c r="B48" s="20" t="s">
         <v>47</v>
@@ -3354,7 +3353,7 @@
         <v>35320</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="23"/>
       <c r="B49" s="20" t="s">
         <v>120</v>
@@ -3376,7 +3375,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
         <v>35339</v>
       </c>
@@ -3396,7 +3395,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
         <v>35370</v>
       </c>
@@ -3422,7 +3421,7 @@
         <v>35382</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <v>35400</v>
       </c>
@@ -3448,7 +3447,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="23"/>
       <c r="B53" s="20" t="s">
         <v>122</v>
@@ -3467,7 +3466,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="47" t="s">
         <v>90</v>
       </c>
@@ -3489,7 +3488,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23">
         <v>35431</v>
       </c>
@@ -3515,7 +3514,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <v>35462</v>
       </c>
@@ -3541,7 +3540,7 @@
         <v>35480</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
         <v>35490</v>
       </c>
@@ -3561,7 +3560,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <v>35521</v>
       </c>
@@ -3585,7 +3584,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <v>35551</v>
       </c>
@@ -3611,7 +3610,7 @@
         <v>35577</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="23"/>
       <c r="B60" s="20" t="s">
         <v>45</v>
@@ -3631,7 +3630,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
         <v>35582</v>
       </c>
@@ -3651,7 +3650,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="23">
         <v>35612</v>
       </c>
@@ -3671,7 +3670,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <v>35643</v>
       </c>
@@ -3691,7 +3690,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="23">
         <v>35674</v>
       </c>
@@ -3717,7 +3716,7 @@
         <v>35695</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="23">
         <v>35704</v>
       </c>
@@ -3741,7 +3740,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
         <v>35735</v>
       </c>
@@ -3767,7 +3766,7 @@
         <v>35753</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <v>35765</v>
       </c>
@@ -3791,7 +3790,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23"/>
       <c r="B68" s="20" t="s">
         <v>129</v>
@@ -3811,7 +3810,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="47" t="s">
         <v>91</v>
       </c>
@@ -3833,7 +3832,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
         <v>35796</v>
       </c>
@@ -3857,7 +3856,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="23"/>
       <c r="B71" s="20" t="s">
         <v>45</v>
@@ -3877,7 +3876,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <v>35827</v>
       </c>
@@ -3901,7 +3900,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
         <v>35855</v>
       </c>
@@ -3927,7 +3926,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="23"/>
       <c r="B74" s="20" t="s">
         <v>132</v>
@@ -3947,7 +3946,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23"/>
       <c r="B75" s="20" t="s">
         <v>45</v>
@@ -3967,7 +3966,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="23">
         <v>35886</v>
       </c>
@@ -3991,7 +3990,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="23">
         <v>35916</v>
       </c>
@@ -4017,7 +4016,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="23"/>
       <c r="B78" s="20" t="s">
         <v>132</v>
@@ -4037,7 +4036,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="23">
         <v>35947</v>
       </c>
@@ -4061,7 +4060,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="23">
         <v>35977</v>
       </c>
@@ -4085,7 +4084,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="23">
         <v>36008</v>
       </c>
@@ -4111,7 +4110,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="23">
         <v>36039</v>
       </c>
@@ -4137,7 +4136,7 @@
         <v>36046</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="23"/>
       <c r="B83" s="20" t="s">
         <v>141</v>
@@ -4154,7 +4153,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="23">
         <v>36069</v>
       </c>
@@ -4178,7 +4177,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="23">
         <v>36100</v>
       </c>
@@ -4202,7 +4201,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="23">
         <v>36130</v>
       </c>
@@ -4228,7 +4227,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="47" t="s">
         <v>92</v>
       </c>
@@ -4250,7 +4249,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
         <v>36161</v>
       </c>
@@ -4276,7 +4275,7 @@
         <v>36182</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="23"/>
       <c r="B89" s="20" t="s">
         <v>145</v>
@@ -4293,7 +4292,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="23"/>
       <c r="B90" s="20" t="s">
         <v>45</v>
@@ -4310,7 +4309,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="23">
         <v>36192</v>
       </c>
@@ -4334,7 +4333,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <v>36220</v>
       </c>
@@ -4358,7 +4357,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="23">
         <v>36251</v>
       </c>
@@ -4378,7 +4377,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="23">
         <v>36281</v>
       </c>
@@ -4402,7 +4401,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="23">
         <v>36312</v>
       </c>
@@ -4428,7 +4427,7 @@
         <v>36322</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="23"/>
       <c r="B96" s="20" t="s">
         <v>47</v>
@@ -4447,7 +4446,7 @@
         <v>36334</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="23">
         <v>36342</v>
       </c>
@@ -4471,7 +4470,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="23">
         <v>36373</v>
       </c>
@@ -4497,7 +4496,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="23"/>
       <c r="B99" s="20" t="s">
         <v>149</v>
@@ -4517,7 +4516,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="23">
         <v>36404</v>
       </c>
@@ -4541,7 +4540,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="23"/>
       <c r="B101" s="20" t="s">
         <v>47</v>
@@ -4563,7 +4562,7 @@
         <v>36423</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="23">
         <v>36434</v>
       </c>
@@ -4583,7 +4582,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="23">
         <v>36465</v>
       </c>
@@ -4609,7 +4608,7 @@
         <v>36482</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="23">
         <v>36495</v>
       </c>
@@ -4635,7 +4634,7 @@
         <v>36500</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="23"/>
       <c r="B105" s="20" t="s">
         <v>151</v>
@@ -4655,7 +4654,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="23"/>
       <c r="B106" s="20" t="s">
         <v>157</v>
@@ -4675,7 +4674,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="23"/>
       <c r="B107" s="20" t="s">
         <v>45</v>
@@ -4695,7 +4694,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="47" t="s">
         <v>93</v>
       </c>
@@ -4717,7 +4716,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="23">
         <v>36526</v>
       </c>
@@ -4741,7 +4740,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="23"/>
       <c r="B110" s="20" t="s">
         <v>45</v>
@@ -4761,7 +4760,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="23">
         <v>36557</v>
       </c>
@@ -4785,7 +4784,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="23">
         <v>36586</v>
       </c>
@@ -4811,7 +4810,7 @@
         <v>36591</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="23"/>
       <c r="B113" s="20" t="s">
         <v>46</v>
@@ -4833,7 +4832,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="23">
         <v>36617</v>
       </c>
@@ -4857,7 +4856,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="23"/>
       <c r="B115" s="20" t="s">
         <v>47</v>
@@ -4879,7 +4878,7 @@
         <v>36627</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="23">
         <v>36647</v>
       </c>
@@ -4905,7 +4904,7 @@
         <v>36654</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="23"/>
       <c r="B117" s="20" t="s">
         <v>45</v>
@@ -4925,7 +4924,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="23"/>
       <c r="B118" s="20" t="s">
         <v>155</v>
@@ -4942,7 +4941,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="23">
         <v>36678</v>
       </c>
@@ -4968,7 +4967,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="23">
         <v>36708</v>
       </c>
@@ -4988,7 +4987,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="23">
         <v>36739</v>
       </c>
@@ -5008,7 +5007,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="23">
         <v>36770</v>
       </c>
@@ -5028,7 +5027,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="23">
         <v>36800</v>
       </c>
@@ -5054,7 +5053,7 @@
         <v>36823</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="23">
         <v>36831</v>
       </c>
@@ -5080,7 +5079,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="23">
         <v>36861</v>
       </c>
@@ -5106,7 +5105,7 @@
         <v>36861</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="47" t="s">
         <v>94</v>
       </c>
@@ -5128,7 +5127,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="23">
         <v>36892</v>
       </c>
@@ -5154,7 +5153,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="23">
         <v>36923</v>
       </c>
@@ -5174,7 +5173,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="23">
         <v>36951</v>
       </c>
@@ -5200,7 +5199,7 @@
         <v>36964</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="23"/>
       <c r="B130" s="20" t="s">
         <v>45</v>
@@ -5220,7 +5219,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="23">
         <v>36982</v>
       </c>
@@ -5240,7 +5239,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="23">
         <v>37012</v>
       </c>
@@ -5260,7 +5259,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="23">
         <v>37043</v>
       </c>
@@ -5286,7 +5285,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="23">
         <v>37073</v>
       </c>
@@ -5306,7 +5305,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="23">
         <v>37104</v>
       </c>
@@ -5326,7 +5325,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="23">
         <v>37135</v>
       </c>
@@ -5346,7 +5345,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="23">
         <v>37165</v>
       </c>
@@ -5366,7 +5365,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="23">
         <v>37196</v>
       </c>
@@ -5392,7 +5391,7 @@
         <v>37200</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="23">
         <v>37226</v>
       </c>
@@ -5412,7 +5411,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="47" t="s">
         <v>95</v>
       </c>
@@ -5434,7 +5433,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="23">
         <v>37257</v>
       </c>
@@ -5460,7 +5459,7 @@
         <v>37264</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="23">
         <v>37288</v>
       </c>
@@ -5486,7 +5485,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="23">
         <v>37316</v>
       </c>
@@ -5506,7 +5505,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="23">
         <v>37347</v>
       </c>
@@ -5532,7 +5531,7 @@
         <v>37375</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="23"/>
       <c r="B145" s="20" t="s">
         <v>45</v>
@@ -5552,7 +5551,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="23">
         <v>37377</v>
       </c>
@@ -5578,7 +5577,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="23"/>
       <c r="B147" s="20" t="s">
         <v>45</v>
@@ -5598,7 +5597,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="23">
         <v>37408</v>
       </c>
@@ -5618,7 +5617,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="23">
         <v>37438</v>
       </c>
@@ -5644,7 +5643,7 @@
         <v>37439</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="23">
         <v>37469</v>
       </c>
@@ -5670,7 +5669,7 @@
         <v>37474</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="23"/>
       <c r="B151" s="20" t="s">
         <v>47</v>
@@ -5692,7 +5691,7 @@
         <v>37487</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="23">
         <v>37500</v>
       </c>
@@ -5718,7 +5717,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="23"/>
       <c r="B153" s="20" t="s">
         <v>47</v>
@@ -5740,7 +5739,7 @@
         <v>37529</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="23">
         <v>37530</v>
       </c>
@@ -5766,7 +5765,7 @@
         <v>37553</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="23">
         <v>37561</v>
       </c>
@@ -5792,7 +5791,7 @@
         <v>37580</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="23"/>
       <c r="B156" s="20" t="s">
         <v>45</v>
@@ -5812,7 +5811,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="23">
         <v>37591</v>
       </c>
@@ -5838,7 +5837,7 @@
         <v>37595</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="47" t="s">
         <v>96</v>
       </c>
@@ -5860,7 +5859,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="23">
         <v>37622</v>
       </c>
@@ -5884,7 +5883,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="23"/>
       <c r="B160" s="20" t="s">
         <v>47</v>
@@ -5906,7 +5905,7 @@
         <v>37642</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="23">
         <v>37653</v>
       </c>
@@ -5926,7 +5925,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="23">
         <v>37681</v>
       </c>
@@ -5952,7 +5951,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="23"/>
       <c r="B163" s="20" t="s">
         <v>45</v>
@@ -5972,7 +5971,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="23">
         <v>37712</v>
       </c>
@@ -5992,7 +5991,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="23">
         <v>37742</v>
       </c>
@@ -6018,7 +6017,7 @@
         <v>37750</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="23">
         <v>37773</v>
       </c>
@@ -6038,7 +6037,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="23">
         <v>37803</v>
       </c>
@@ -6064,7 +6063,7 @@
         <v>37804</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="23"/>
       <c r="B168" s="20" t="s">
         <v>114</v>
@@ -6086,7 +6085,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="23">
         <v>37834</v>
       </c>
@@ -6106,7 +6105,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="23">
         <v>37865</v>
       </c>
@@ -6132,7 +6131,7 @@
         <v>37889</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="23"/>
       <c r="B171" s="20" t="s">
         <v>179</v>
@@ -6152,7 +6151,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="48"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="23">
         <v>37895</v>
       </c>
@@ -6176,7 +6175,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="23">
         <v>37926</v>
       </c>
@@ -6202,7 +6201,7 @@
         <v>37930</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="23"/>
       <c r="B174" s="20" t="s">
         <v>181</v>
@@ -6219,7 +6218,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="23">
         <v>37956</v>
       </c>
@@ -6243,7 +6242,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="47" t="s">
         <v>97</v>
       </c>
@@ -6265,7 +6264,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="23">
         <v>37987</v>
       </c>
@@ -6291,7 +6290,7 @@
         <v>38012</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="23"/>
       <c r="B178" s="20" t="s">
         <v>183</v>
@@ -6308,7 +6307,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="23"/>
       <c r="B179" s="20" t="s">
         <v>45</v>
@@ -6325,7 +6324,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="23">
         <v>38018</v>
       </c>
@@ -6349,7 +6348,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="23">
         <v>38047</v>
       </c>
@@ -6375,7 +6374,7 @@
         <v>38056</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="23"/>
       <c r="B182" s="20" t="s">
         <v>49</v>
@@ -6394,7 +6393,7 @@
         <v>38079</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="23"/>
       <c r="B183" s="20" t="s">
         <v>186</v>
@@ -6411,7 +6410,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="23"/>
       <c r="B184" s="20" t="s">
         <v>45</v>
@@ -6431,7 +6430,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="23">
         <v>38078</v>
       </c>
@@ -6455,7 +6454,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="23">
         <v>38108</v>
       </c>
@@ -6481,7 +6480,7 @@
         <v>38110</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="23"/>
       <c r="B187" s="20" t="s">
         <v>49</v>
@@ -6503,7 +6502,7 @@
         <v>38139</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="23"/>
       <c r="B188" s="20" t="s">
         <v>189</v>
@@ -6523,7 +6522,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="23">
         <v>38139</v>
       </c>
@@ -6547,7 +6546,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="23">
         <v>38169</v>
       </c>
@@ -6573,7 +6572,7 @@
         <v>38174</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="23"/>
       <c r="B191" s="20" t="s">
         <v>46</v>
@@ -6595,7 +6594,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="23"/>
       <c r="B192" s="20" t="s">
         <v>191</v>
@@ -6615,7 +6614,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="23">
         <v>38200</v>
       </c>
@@ -6641,7 +6640,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="23"/>
       <c r="B194" s="20" t="s">
         <v>47</v>
@@ -6663,7 +6662,7 @@
         <v>38226</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="23"/>
       <c r="B195" s="20" t="s">
         <v>192</v>
@@ -6683,7 +6682,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="23">
         <v>38231</v>
       </c>
@@ -6709,7 +6708,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="23">
         <v>38261</v>
       </c>
@@ -6735,7 +6734,7 @@
         <v>38289</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="23"/>
       <c r="B198" s="20" t="s">
         <v>193</v>
@@ -6755,7 +6754,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="23">
         <v>38292</v>
       </c>
@@ -6779,7 +6778,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="23"/>
       <c r="B200" s="20" t="s">
         <v>45</v>
@@ -6799,7 +6798,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="23">
         <v>38322</v>
       </c>
@@ -6825,7 +6824,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="23"/>
       <c r="B202" s="20" t="s">
         <v>195</v>
@@ -6845,7 +6844,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="47" t="s">
         <v>98</v>
       </c>
@@ -6867,7 +6866,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="23">
         <v>38353</v>
       </c>
@@ -6893,7 +6892,7 @@
         <v>38379</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="23"/>
       <c r="B205" s="20" t="s">
         <v>47</v>
@@ -6912,7 +6911,7 @@
         <v>38385</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="23"/>
       <c r="B206" s="20" t="s">
         <v>45</v>
@@ -6929,7 +6928,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="23"/>
       <c r="B207" s="20" t="s">
         <v>209</v>
@@ -6946,7 +6945,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="23">
         <v>38384</v>
       </c>
@@ -6970,7 +6969,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="23">
         <v>38412</v>
       </c>
@@ -6996,7 +6995,7 @@
         <v>38432</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="23"/>
       <c r="B210" s="20" t="s">
         <v>202</v>
@@ -7016,7 +7015,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="23">
         <v>38443</v>
       </c>
@@ -7042,7 +7041,7 @@
         <v>38447</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="23"/>
       <c r="B212" s="20" t="s">
         <v>53</v>
@@ -7064,7 +7063,7 @@
         <v>38457</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="23"/>
       <c r="B213" s="20" t="s">
         <v>203</v>
@@ -7084,7 +7083,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="23"/>
       <c r="B214" s="20" t="s">
         <v>45</v>
@@ -7104,7 +7103,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="23">
         <v>38473</v>
       </c>
@@ -7130,7 +7129,7 @@
         <v>38485</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="23"/>
       <c r="B216" s="20" t="s">
         <v>204</v>
@@ -7150,7 +7149,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="23">
         <v>38504</v>
       </c>
@@ -7176,7 +7175,7 @@
         <v>38513</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="23"/>
       <c r="B218" s="20" t="s">
         <v>205</v>
@@ -7196,7 +7195,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="23">
         <v>38534</v>
       </c>
@@ -7222,7 +7221,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="23"/>
       <c r="B220" s="20" t="s">
         <v>47</v>
@@ -7244,7 +7243,7 @@
         <v>38559</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="23"/>
       <c r="B221" s="20" t="s">
         <v>206</v>
@@ -7264,7 +7263,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="23">
         <v>38565</v>
       </c>
@@ -7290,7 +7289,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="23"/>
       <c r="B223" s="20" t="s">
         <v>207</v>
@@ -7310,7 +7309,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="23">
         <v>38596</v>
       </c>
@@ -7336,7 +7335,7 @@
         <v>38623</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="23"/>
       <c r="B225" s="20" t="s">
         <v>213</v>
@@ -7356,7 +7355,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="48"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="23">
         <v>38626</v>
       </c>
@@ -7382,7 +7381,7 @@
         <v>38644</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="23"/>
       <c r="B227" s="20" t="s">
         <v>214</v>
@@ -7402,7 +7401,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="23">
         <v>38657</v>
       </c>
@@ -7422,7 +7421,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="23">
         <v>38687</v>
       </c>
@@ -7448,7 +7447,7 @@
         <v>38709</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="23"/>
       <c r="B230" s="20" t="s">
         <v>45</v>
@@ -7468,7 +7467,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="47" t="s">
         <v>99</v>
       </c>
@@ -7490,7 +7489,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="23">
         <v>38718</v>
       </c>
@@ -7514,7 +7513,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="23"/>
       <c r="B233" s="20" t="s">
         <v>45</v>
@@ -7534,7 +7533,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="23">
         <v>38749</v>
       </c>
@@ -7560,7 +7559,7 @@
         <v>38765</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="23"/>
       <c r="B235" s="20" t="s">
         <v>53</v>
@@ -7582,7 +7581,7 @@
         <v>38779</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="23"/>
       <c r="B236" s="20" t="s">
         <v>216</v>
@@ -7602,7 +7601,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="23">
         <v>38777</v>
       </c>
@@ -7628,7 +7627,7 @@
         <v>38786</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="23"/>
       <c r="B238" s="20" t="s">
         <v>217</v>
@@ -7648,7 +7647,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="23"/>
       <c r="B239" s="20" t="s">
         <v>45</v>
@@ -7668,7 +7667,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="23">
         <v>38808</v>
       </c>
@@ -7694,7 +7693,7 @@
         <v>38835</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="23"/>
       <c r="B241" s="20" t="s">
         <v>218</v>
@@ -7714,7 +7713,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="23">
         <v>38838</v>
       </c>
@@ -7738,7 +7737,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="23">
         <v>38869</v>
       </c>
@@ -7764,7 +7763,7 @@
         <v>38898</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="23"/>
       <c r="B244" s="20" t="s">
         <v>223</v>
@@ -7784,7 +7783,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="48"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="23">
         <v>38899</v>
       </c>
@@ -7810,7 +7809,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="23"/>
       <c r="B246" s="20" t="s">
         <v>53</v>
@@ -7832,7 +7831,7 @@
         <v>38926</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="23"/>
       <c r="B247" s="20" t="s">
         <v>224</v>
@@ -7852,7 +7851,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="23">
         <v>38930</v>
       </c>
@@ -7876,7 +7875,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="23">
         <v>38961</v>
       </c>
@@ -7902,7 +7901,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="23"/>
       <c r="B250" s="20" t="s">
         <v>226</v>
@@ -7922,7 +7921,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="23">
         <v>38991</v>
       </c>
@@ -7948,7 +7947,7 @@
         <v>39009</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="23"/>
       <c r="B252" s="20" t="s">
         <v>53</v>
@@ -7970,7 +7969,7 @@
         <v>39021</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="23"/>
       <c r="B253" s="20" t="s">
         <v>227</v>
@@ -7990,7 +7989,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="23">
         <v>39022</v>
       </c>
@@ -8014,7 +8013,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="23"/>
       <c r="B255" s="20" t="s">
         <v>45</v>
@@ -8034,7 +8033,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="23">
         <v>39052</v>
       </c>
@@ -8058,7 +8057,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="47" t="s">
         <v>100</v>
       </c>
@@ -8080,7 +8079,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="23">
         <v>39083</v>
       </c>
@@ -8106,7 +8105,7 @@
         <v>39106</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="23"/>
       <c r="B259" s="20" t="s">
         <v>45</v>
@@ -8126,7 +8125,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="23"/>
       <c r="B260" s="20" t="s">
         <v>230</v>
@@ -8146,7 +8145,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="23">
         <v>39114</v>
       </c>
@@ -8170,7 +8169,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="23">
         <v>39142</v>
       </c>
@@ -8196,7 +8195,7 @@
         <v>39150</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="23"/>
       <c r="B263" s="20" t="s">
         <v>45</v>
@@ -8216,7 +8215,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="23"/>
       <c r="B264" s="20" t="s">
         <v>47</v>
@@ -8238,7 +8237,7 @@
         <v>39170</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="23"/>
       <c r="B265" s="20" t="s">
         <v>239</v>
@@ -8258,7 +8257,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="23">
         <v>39173</v>
       </c>
@@ -8284,7 +8283,7 @@
         <v>39195</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="23"/>
       <c r="B267" s="20" t="s">
         <v>47</v>
@@ -8306,7 +8305,7 @@
         <v>39196</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="23"/>
       <c r="B268" s="20" t="s">
         <v>45</v>
@@ -8326,7 +8325,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="23"/>
       <c r="B269" s="20" t="s">
         <v>47</v>
@@ -8348,7 +8347,7 @@
         <v>39219</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="23"/>
       <c r="B270" s="20" t="s">
         <v>240</v>
@@ -8368,7 +8367,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="23">
         <v>39203</v>
       </c>
@@ -8394,7 +8393,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="23"/>
       <c r="B272" s="20" t="s">
         <v>241</v>
@@ -8414,7 +8413,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="23">
         <v>39234</v>
       </c>
@@ -8440,7 +8439,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="23"/>
       <c r="B274" s="20" t="s">
         <v>47</v>
@@ -8462,7 +8461,7 @@
         <v>39261</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="23"/>
       <c r="B275" s="20" t="s">
         <v>242</v>
@@ -8482,7 +8481,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="23">
         <v>39264</v>
       </c>
@@ -8508,7 +8507,7 @@
         <v>39272</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="23"/>
       <c r="B277" s="20" t="s">
         <v>53</v>
@@ -8530,7 +8529,7 @@
         <v>39282</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="23"/>
       <c r="B278" s="20" t="s">
         <v>46</v>
@@ -8552,7 +8551,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="23"/>
       <c r="B279" s="20" t="s">
         <v>243</v>
@@ -8572,7 +8571,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="23">
         <v>39295</v>
       </c>
@@ -8598,7 +8597,7 @@
         <v>39308</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="23"/>
       <c r="B281" s="20" t="s">
         <v>46</v>
@@ -8620,7 +8619,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="23"/>
       <c r="B282" s="20" t="s">
         <v>47</v>
@@ -8642,7 +8641,7 @@
         <v>39324</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="23"/>
       <c r="B283" s="20" t="s">
         <v>53</v>
@@ -8664,7 +8663,7 @@
         <v>39331</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="23"/>
       <c r="B284" s="20" t="s">
         <v>249</v>
@@ -8684,7 +8683,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="48"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="23">
         <v>39326</v>
       </c>
@@ -8708,7 +8707,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="23">
         <v>39356</v>
       </c>
@@ -8734,7 +8733,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="23"/>
       <c r="B287" s="20" t="s">
         <v>46</v>
@@ -8756,7 +8755,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="23"/>
       <c r="B288" s="20" t="s">
         <v>251</v>
@@ -8776,7 +8775,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="23">
         <v>39387</v>
       </c>
@@ -8802,7 +8801,7 @@
         <v>39420</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="23"/>
       <c r="B290" s="20" t="s">
         <v>45</v>
@@ -8822,7 +8821,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="23"/>
       <c r="B291" s="20" t="s">
         <v>252</v>
@@ -8842,7 +8841,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="23">
         <v>39417</v>
       </c>
@@ -8864,7 +8863,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="47" t="s">
         <v>101</v>
       </c>
@@ -8886,7 +8885,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="23">
         <v>39448</v>
       </c>
@@ -8912,7 +8911,7 @@
         <v>39472</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="23"/>
       <c r="B295" s="20" t="s">
         <v>47</v>
@@ -8931,7 +8930,7 @@
         <v>39476</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="23">
         <v>39479</v>
       </c>
@@ -8951,7 +8950,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="23">
         <v>39508</v>
       </c>
@@ -8977,7 +8976,7 @@
         <v>39535</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="23"/>
       <c r="B298" s="20" t="s">
         <v>45</v>
@@ -8997,7 +8996,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="23"/>
       <c r="B299" s="20" t="s">
         <v>183</v>
@@ -9017,7 +9016,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="23">
         <v>39539</v>
       </c>
@@ -9043,7 +9042,7 @@
         <v>39553</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="23"/>
       <c r="B301" s="20" t="s">
         <v>45</v>
@@ -9063,7 +9062,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="23"/>
       <c r="B302" s="20" t="s">
         <v>257</v>
@@ -9083,7 +9082,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="23">
         <v>39569</v>
       </c>
@@ -9109,7 +9108,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="23"/>
       <c r="B304" s="20" t="s">
         <v>258</v>
@@ -9129,7 +9128,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="23">
         <v>39600</v>
       </c>
@@ -9153,7 +9152,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="23">
         <v>39630</v>
       </c>
@@ -9177,7 +9176,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="23">
         <v>39661</v>
       </c>
@@ -9201,7 +9200,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="23">
         <v>39692</v>
       </c>
@@ -9227,7 +9226,7 @@
         <v>39696</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="23"/>
       <c r="B309" s="20" t="s">
         <v>46</v>
@@ -9249,7 +9248,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="23"/>
       <c r="B310" s="20" t="s">
         <v>265</v>
@@ -9269,7 +9268,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="23">
         <v>39722</v>
       </c>
@@ -9295,7 +9294,7 @@
         <v>39750</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="23"/>
       <c r="B312" s="20" t="s">
         <v>266</v>
@@ -9315,7 +9314,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="23">
         <v>39753</v>
       </c>
@@ -9341,7 +9340,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="23"/>
       <c r="B314" s="20" t="s">
         <v>267</v>
@@ -9361,7 +9360,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="23">
         <v>39783</v>
       </c>
@@ -9385,7 +9384,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="23"/>
       <c r="B316" s="20" t="s">
         <v>53</v>
@@ -9407,7 +9406,7 @@
         <v>39798</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="23"/>
       <c r="B317" s="20" t="s">
         <v>47</v>
@@ -9429,7 +9428,7 @@
         <v>39801</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="23"/>
       <c r="B318" s="20" t="s">
         <v>268</v>
@@ -9449,7 +9448,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="47" t="s">
         <v>102</v>
       </c>
@@ -9471,7 +9470,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="23">
         <v>39814</v>
       </c>
@@ -9497,7 +9496,7 @@
         <v>39842</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="23"/>
       <c r="B321" s="20" t="s">
         <v>272</v>
@@ -9517,7 +9516,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="23">
         <v>39845</v>
       </c>
@@ -9543,7 +9542,7 @@
         <v>39861</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="23"/>
       <c r="B323" s="20" t="s">
         <v>273</v>
@@ -9563,7 +9562,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="23">
         <v>39873</v>
       </c>
@@ -9589,7 +9588,7 @@
         <v>39876</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="23"/>
       <c r="B325" s="20" t="s">
         <v>274</v>
@@ -9606,7 +9605,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="48"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="23"/>
       <c r="B326" s="20" t="s">
         <v>45</v>
@@ -9623,7 +9622,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="23">
         <v>39904</v>
       </c>
@@ -9649,7 +9648,7 @@
         <v>39920</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="23"/>
       <c r="B328" s="20" t="s">
         <v>45</v>
@@ -9669,7 +9668,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="23"/>
       <c r="B329" s="20" t="s">
         <v>275</v>
@@ -9689,7 +9688,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="23">
         <v>39934</v>
       </c>
@@ -9715,7 +9714,7 @@
         <v>39951</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="23"/>
       <c r="B331" s="20" t="s">
         <v>53</v>
@@ -9737,7 +9736,7 @@
         <v>39961</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="23"/>
       <c r="B332" s="20" t="s">
         <v>276</v>
@@ -9757,7 +9756,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="23">
         <v>39965</v>
       </c>
@@ -9781,7 +9780,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="23">
         <v>39995</v>
       </c>
@@ -9807,7 +9806,7 @@
         <v>40015</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="23"/>
       <c r="B335" s="20" t="s">
         <v>47</v>
@@ -9829,7 +9828,7 @@
         <v>40021</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="23"/>
       <c r="B336" s="20" t="s">
         <v>278</v>
@@ -9849,7 +9848,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="23">
         <v>40026</v>
       </c>
@@ -9875,7 +9874,7 @@
         <v>40052</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="23"/>
       <c r="B338" s="20" t="s">
         <v>279</v>
@@ -9895,7 +9894,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="23">
         <v>40057</v>
       </c>
@@ -9921,7 +9920,7 @@
         <v>40060</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="23"/>
       <c r="B340" s="20" t="s">
         <v>53</v>
@@ -9943,7 +9942,7 @@
         <v>40086</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="23"/>
       <c r="B341" s="20" t="s">
         <v>47</v>
@@ -9965,7 +9964,7 @@
         <v>40081</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="23"/>
       <c r="B342" s="20" t="s">
         <v>280</v>
@@ -9985,7 +9984,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="23">
         <v>40087</v>
       </c>
@@ -10011,7 +10010,7 @@
         <v>40102</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="23"/>
       <c r="B344" s="20" t="s">
         <v>281</v>
@@ -10031,7 +10030,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="23">
         <v>40118</v>
       </c>
@@ -10057,7 +10056,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="23"/>
       <c r="B346" s="20" t="s">
         <v>46</v>
@@ -10079,7 +10078,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="23"/>
       <c r="B347" s="20" t="s">
         <v>284</v>
@@ -10099,7 +10098,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="23">
         <v>40148</v>
       </c>
@@ -10123,7 +10122,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="23"/>
       <c r="B349" s="20" t="s">
         <v>53</v>
@@ -10143,7 +10142,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="47" t="s">
         <v>103</v>
       </c>
@@ -10165,7 +10164,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="23">
         <v>40179</v>
       </c>
@@ -10189,7 +10188,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="23"/>
       <c r="B352" s="20" t="s">
         <v>286</v>
@@ -10209,7 +10208,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="23">
         <v>40210</v>
       </c>
@@ -10235,7 +10234,7 @@
         <v>40212</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="23"/>
       <c r="B354" s="20" t="s">
         <v>47</v>
@@ -10257,7 +10256,7 @@
         <v>40226</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="23"/>
       <c r="B355" s="20" t="s">
         <v>287</v>
@@ -10277,7 +10276,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="23">
         <v>40238</v>
       </c>
@@ -10301,7 +10300,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="23">
         <v>40269</v>
       </c>
@@ -10327,7 +10326,7 @@
         <v>40291</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="23"/>
       <c r="B358" s="20" t="s">
         <v>45</v>
@@ -10347,7 +10346,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="23"/>
       <c r="B359" s="20" t="s">
         <v>289</v>
@@ -10367,7 +10366,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="23">
         <v>40299</v>
       </c>
@@ -10391,7 +10390,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="23">
         <v>40330</v>
       </c>
@@ -10417,7 +10416,7 @@
         <v>40332</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="23"/>
       <c r="B362" s="20" t="s">
         <v>291</v>
@@ -10437,7 +10436,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="23">
         <v>40360</v>
       </c>
@@ -10463,7 +10462,7 @@
         <v>40371</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="23"/>
       <c r="B364" s="20" t="s">
         <v>47</v>
@@ -10485,7 +10484,7 @@
         <v>40373</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="23"/>
       <c r="B365" s="20" t="s">
         <v>53</v>
@@ -10507,7 +10506,7 @@
         <v>40386</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="23"/>
       <c r="B366" s="20" t="s">
         <v>47</v>
@@ -10526,7 +10525,7 @@
         <v>40381</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="23"/>
       <c r="B367" s="20" t="s">
         <v>297</v>
@@ -10546,7 +10545,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="48"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="23">
         <v>40391</v>
       </c>
@@ -10572,7 +10571,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="23"/>
       <c r="B369" s="20" t="s">
         <v>296</v>
@@ -10592,7 +10591,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="23">
         <v>40422</v>
       </c>
@@ -10618,7 +10617,7 @@
         <v>40435</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="23"/>
       <c r="B371" s="20" t="s">
         <v>46</v>
@@ -10640,7 +10639,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="23"/>
       <c r="B372" s="20" t="s">
         <v>299</v>
@@ -10660,7 +10659,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="23">
         <v>40452</v>
       </c>
@@ -10686,7 +10685,7 @@
         <v>40471</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="23"/>
       <c r="B374" s="20" t="s">
         <v>300</v>
@@ -10706,7 +10705,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="23">
         <v>40483</v>
       </c>
@@ -10732,7 +10731,7 @@
         <v>40487</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="23"/>
       <c r="B376" s="20" t="s">
         <v>45</v>
@@ -10752,7 +10751,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="23"/>
       <c r="B377" s="20" t="s">
         <v>47</v>
@@ -10774,7 +10773,7 @@
         <v>40515</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="23"/>
       <c r="B378" s="20" t="s">
         <v>301</v>
@@ -10794,7 +10793,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="23">
         <v>40513</v>
       </c>
@@ -10820,7 +10819,7 @@
         <v>40542</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="23"/>
       <c r="B380" s="20" t="s">
         <v>157</v>
@@ -10840,7 +10839,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="23"/>
       <c r="B381" s="20" t="s">
         <v>302</v>
@@ -10860,7 +10859,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="47" t="s">
         <v>104</v>
       </c>
@@ -10882,7 +10881,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="23">
         <v>40544</v>
       </c>
@@ -10908,7 +10907,7 @@
         <v>40547</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="23"/>
       <c r="B384" s="20" t="s">
         <v>47</v>
@@ -10930,7 +10929,7 @@
         <v>40556</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="23"/>
       <c r="B385" s="20" t="s">
         <v>45</v>
@@ -10950,7 +10949,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="23"/>
       <c r="B386" s="20" t="s">
         <v>305</v>
@@ -10970,7 +10969,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="23">
         <v>40575</v>
       </c>
@@ -10996,7 +10995,7 @@
         <v>40578</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="23"/>
       <c r="B388" s="20" t="s">
         <v>53</v>
@@ -11018,7 +11017,7 @@
         <v>40599</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="23"/>
       <c r="B389" s="20" t="s">
         <v>307</v>
@@ -11038,7 +11037,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="23">
         <v>40603</v>
       </c>
@@ -11064,7 +11063,7 @@
         <v>40610</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="23"/>
       <c r="B391" s="20" t="s">
         <v>47</v>
@@ -11086,7 +11085,7 @@
         <v>40631</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="23"/>
       <c r="B392" s="20" t="s">
         <v>45</v>
@@ -11106,7 +11105,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="23"/>
       <c r="B393" s="20" t="s">
         <v>308</v>
@@ -11126,7 +11125,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="23">
         <v>40634</v>
       </c>
@@ -11152,7 +11151,7 @@
         <v>40658</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="23"/>
       <c r="B395" s="20" t="s">
         <v>45</v>
@@ -11172,7 +11171,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="23"/>
       <c r="B396" s="20" t="s">
         <v>309</v>
@@ -11192,7 +11191,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="23">
         <v>40664</v>
       </c>
@@ -11218,7 +11217,7 @@
         <v>40679</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="23"/>
       <c r="B398" s="20" t="s">
         <v>47</v>
@@ -11240,7 +11239,7 @@
         <v>40697</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="23"/>
       <c r="B399" s="20" t="s">
         <v>310</v>
@@ -11260,7 +11259,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="23">
         <v>40695</v>
       </c>
@@ -11286,7 +11285,7 @@
         <v>40739</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="23"/>
       <c r="B401" s="20" t="s">
         <v>47</v>
@@ -11308,7 +11307,7 @@
         <v>40757</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="23"/>
       <c r="B402" s="20" t="s">
         <v>311</v>
@@ -11328,7 +11327,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="23">
         <v>40725</v>
       </c>
@@ -11352,7 +11351,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="23">
         <v>40756</v>
       </c>
@@ -11376,7 +11375,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="23">
         <v>40787</v>
       </c>
@@ -11402,7 +11401,7 @@
         <v>40802</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="23"/>
       <c r="B406" s="20" t="s">
         <v>47</v>
@@ -11421,7 +11420,7 @@
         <v>40814</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="23"/>
       <c r="B407" s="20" t="s">
         <v>47</v>
@@ -11443,7 +11442,7 @@
         <v>40813</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="23"/>
       <c r="B408" s="20" t="s">
         <v>316</v>
@@ -11463,7 +11462,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="48"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="23">
         <v>40817</v>
       </c>
@@ -11489,7 +11488,7 @@
         <v>40827</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="23"/>
       <c r="B410" s="20" t="s">
         <v>317</v>
@@ -11509,7 +11508,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="23">
         <v>40848</v>
       </c>
@@ -11535,7 +11534,7 @@
         <v>40851</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="23"/>
       <c r="B412" s="20" t="s">
         <v>53</v>
@@ -11557,7 +11556,7 @@
         <v>40872</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="23"/>
       <c r="B413" s="20" t="s">
         <v>318</v>
@@ -11577,7 +11576,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="23">
         <v>40878</v>
       </c>
@@ -11603,7 +11602,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="23"/>
       <c r="B415" s="20" t="s">
         <v>47</v>
@@ -11625,7 +11624,7 @@
         <v>40903</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="23"/>
       <c r="B416" s="20" t="s">
         <v>53</v>
@@ -11645,7 +11644,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="23"/>
       <c r="B417" s="20" t="s">
         <v>320</v>
@@ -11662,7 +11661,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="47" t="s">
         <v>105</v>
       </c>
@@ -11684,7 +11683,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="23">
         <v>40909</v>
       </c>
@@ -11710,7 +11709,7 @@
         <v>40912</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="23"/>
       <c r="B420" s="20" t="s">
         <v>47</v>
@@ -11729,7 +11728,7 @@
         <v>40921</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="23"/>
       <c r="B421" s="20" t="s">
         <v>321</v>
@@ -11746,7 +11745,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="23">
         <v>40940</v>
       </c>
@@ -11772,7 +11771,7 @@
         <v>40956</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="23"/>
       <c r="B423" s="20" t="s">
         <v>47</v>
@@ -11791,7 +11790,7 @@
         <v>40947</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="23"/>
       <c r="B424" s="20" t="s">
         <v>47</v>
@@ -11810,7 +11809,7 @@
         <v>40955</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="23"/>
       <c r="B425" s="20" t="s">
         <v>47</v>
@@ -11829,7 +11828,7 @@
         <v>40967</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="23"/>
       <c r="B426" s="20" t="s">
         <v>47</v>
@@ -11848,7 +11847,7 @@
         <v>40969</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="23"/>
       <c r="B427" s="20" t="s">
         <v>322</v>
@@ -11865,7 +11864,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="23">
         <v>40969</v>
       </c>
@@ -11891,7 +11890,7 @@
         <v>40989</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="23"/>
       <c r="B429" s="20" t="s">
         <v>323</v>
@@ -11911,7 +11910,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="48"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="23">
         <v>41000</v>
       </c>
@@ -11937,7 +11936,7 @@
         <v>41019</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="23"/>
       <c r="B431" s="20" t="s">
         <v>45</v>
@@ -11957,7 +11956,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="23"/>
       <c r="B432" s="20" t="s">
         <v>316</v>
@@ -11977,7 +11976,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="23">
         <v>41030</v>
       </c>
@@ -12003,7 +12002,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="23"/>
       <c r="B434" s="20" t="s">
         <v>324</v>
@@ -12023,7 +12022,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="23">
         <v>41061</v>
       </c>
@@ -12049,7 +12048,7 @@
         <v>41074</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="23"/>
       <c r="B436" s="20" t="s">
         <v>325</v>
@@ -12069,7 +12068,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="23">
         <v>41091</v>
       </c>
@@ -12095,7 +12094,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="23"/>
       <c r="B438" s="20" t="s">
         <v>53</v>
@@ -12117,7 +12116,7 @@
         <v>41117</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="23"/>
       <c r="B439" s="20" t="s">
         <v>47</v>
@@ -12139,7 +12138,7 @@
         <v>41115</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="23"/>
       <c r="B440" s="20" t="s">
         <v>326</v>
@@ -12159,7 +12158,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="23">
         <v>41122</v>
       </c>
@@ -12183,7 +12182,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="23"/>
       <c r="B442" s="20" t="s">
         <v>47</v>
@@ -12205,7 +12204,7 @@
         <v>41149</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="23">
         <v>41153</v>
       </c>
@@ -12231,7 +12230,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="23"/>
       <c r="B444" s="20" t="s">
         <v>47</v>
@@ -12253,7 +12252,7 @@
         <v>41199</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="23"/>
       <c r="B445" s="20" t="s">
         <v>53</v>
@@ -12275,7 +12274,7 @@
         <v>41205</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="23"/>
       <c r="B446" s="20" t="s">
         <v>328</v>
@@ -12295,7 +12294,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="23">
         <v>41183</v>
       </c>
@@ -12321,7 +12320,7 @@
         <v>41212</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="23"/>
       <c r="B448" s="20" t="s">
         <v>329</v>
@@ -12341,7 +12340,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="23">
         <v>41214</v>
       </c>
@@ -12365,7 +12364,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="23">
         <v>41244</v>
       </c>
@@ -12391,7 +12390,7 @@
         <v>41256</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="23"/>
       <c r="B451" s="20" t="s">
         <v>45</v>
@@ -12408,7 +12407,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="23"/>
       <c r="B452" s="20" t="s">
         <v>335</v>
@@ -12425,7 +12424,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="47" t="s">
         <v>106</v>
       </c>
@@ -12447,7 +12446,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="23">
         <v>41275</v>
       </c>
@@ -12471,7 +12470,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="23">
         <v>41306</v>
       </c>
@@ -12497,7 +12496,7 @@
         <v>41325</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="23"/>
       <c r="B456" s="20" t="s">
         <v>52</v>
@@ -12519,7 +12518,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="23"/>
       <c r="B457" s="20" t="s">
         <v>337</v>
@@ -12539,7 +12538,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="23">
         <v>41334</v>
       </c>
@@ -12563,7 +12562,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="23">
         <v>41365</v>
       </c>
@@ -12589,7 +12588,7 @@
         <v>41372</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="23"/>
       <c r="B460" s="20" t="s">
         <v>47</v>
@@ -12611,7 +12610,7 @@
         <v>41387</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="23"/>
       <c r="B461" s="20" t="s">
         <v>45</v>
@@ -12631,7 +12630,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="23"/>
       <c r="B462" s="20" t="s">
         <v>46</v>
@@ -12653,7 +12652,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="23"/>
       <c r="B463" s="20" t="s">
         <v>339</v>
@@ -12673,7 +12672,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="23">
         <v>41395</v>
       </c>
@@ -12699,7 +12698,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="23"/>
       <c r="B465" s="20" t="s">
         <v>47</v>
@@ -12721,7 +12720,7 @@
         <v>41422</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="23"/>
       <c r="B466" s="20" t="s">
         <v>340</v>
@@ -12741,7 +12740,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="23">
         <v>41426</v>
       </c>
@@ -12767,7 +12766,7 @@
         <v>41431</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="23"/>
       <c r="B468" s="20" t="s">
         <v>131</v>
@@ -12787,7 +12786,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="23">
         <v>41456</v>
       </c>
@@ -12813,7 +12812,7 @@
         <v>41457</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="23"/>
       <c r="B470" s="20" t="s">
         <v>47</v>
@@ -12835,7 +12834,7 @@
         <v>41466</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="23"/>
       <c r="B471" s="20" t="s">
         <v>345</v>
@@ -12855,7 +12854,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="23">
         <v>41487</v>
       </c>
@@ -12881,7 +12880,7 @@
         <v>41506</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="23"/>
       <c r="B473" s="20" t="s">
         <v>346</v>
@@ -12901,7 +12900,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="23">
         <v>41518</v>
       </c>
@@ -12927,7 +12926,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="23"/>
       <c r="B475" s="20" t="s">
         <v>347</v>
@@ -12947,7 +12946,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="23">
         <v>41548</v>
       </c>
@@ -12973,7 +12972,7 @@
         <v>41578</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="23"/>
       <c r="B477" s="20" t="s">
         <v>348</v>
@@ -12993,7 +12992,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="23">
         <v>41579</v>
       </c>
@@ -13017,7 +13016,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="23"/>
       <c r="B479" s="20" t="s">
         <v>349</v>
@@ -13037,7 +13036,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="23">
         <v>41609</v>
       </c>
@@ -13063,7 +13062,7 @@
         <v>41610</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="23"/>
       <c r="B481" s="20" t="s">
         <v>53</v>
@@ -13083,7 +13082,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="23"/>
       <c r="B482" s="20" t="s">
         <v>350</v>
@@ -13100,7 +13099,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="23"/>
       <c r="B483" s="20" t="s">
         <v>45</v>
@@ -13120,7 +13119,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="47" t="s">
         <v>107</v>
       </c>
@@ -13142,7 +13141,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="23">
         <v>41640</v>
       </c>
@@ -13168,7 +13167,7 @@
         <v>41652</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="23"/>
       <c r="B486" s="20" t="s">
         <v>47</v>
@@ -13190,7 +13189,7 @@
         <v>41656</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="23"/>
       <c r="B487" s="20" t="s">
         <v>351</v>
@@ -13210,7 +13209,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="23">
         <v>41671</v>
       </c>
@@ -13236,7 +13235,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="23"/>
       <c r="B489" s="20" t="s">
         <v>168</v>
@@ -13258,7 +13257,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="23"/>
       <c r="B490" s="20" t="s">
         <v>47</v>
@@ -13280,7 +13279,7 @@
         <v>41712</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="23"/>
       <c r="B491" s="20" t="s">
         <v>357</v>
@@ -13297,7 +13296,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="48"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="23">
         <v>41699</v>
       </c>
@@ -13321,7 +13320,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="23">
         <v>41730</v>
       </c>
@@ -13345,7 +13344,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="23">
         <v>41760</v>
       </c>
@@ -13369,7 +13368,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="23"/>
       <c r="B495" s="20" t="s">
         <v>47</v>
@@ -13391,7 +13390,7 @@
         <v>41789</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="23"/>
       <c r="B496" s="20" t="s">
         <v>360</v>
@@ -13411,7 +13410,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="23">
         <v>41791</v>
       </c>
@@ -13437,7 +13436,7 @@
         <v>41817</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="23">
         <v>41821</v>
       </c>
@@ -13463,7 +13462,7 @@
         <v>41848</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="23">
         <v>41852</v>
       </c>
@@ -13489,7 +13488,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="23">
         <v>41883</v>
       </c>
@@ -13513,7 +13512,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="23">
         <v>41913</v>
       </c>
@@ -13537,7 +13536,7 @@
         <v>41936</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="23"/>
       <c r="B502" s="20" t="s">
         <v>362</v>
@@ -13557,7 +13556,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="23">
         <v>41944</v>
       </c>
@@ -13583,7 +13582,7 @@
         <v>41956</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="23"/>
       <c r="B504" s="20" t="s">
         <v>53</v>
@@ -13605,7 +13604,7 @@
         <v>41969</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="23"/>
       <c r="B505" s="20" t="s">
         <v>363</v>
@@ -13625,7 +13624,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="23">
         <v>41974</v>
       </c>
@@ -13651,7 +13650,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="23"/>
       <c r="B507" s="20" t="s">
         <v>53</v>
@@ -13670,7 +13669,7 @@
         <v>41991</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="23"/>
       <c r="B508" s="20" t="s">
         <v>61</v>
@@ -13687,7 +13686,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="23"/>
       <c r="B509" s="20" t="s">
         <v>195</v>
@@ -13704,7 +13703,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="47" t="s">
         <v>108</v>
       </c>
@@ -13726,7 +13725,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="23">
         <v>42005</v>
       </c>
@@ -13752,7 +13751,7 @@
         <v>42027</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="23"/>
       <c r="B512" s="20" t="s">
         <v>367</v>
@@ -13772,7 +13771,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="23">
         <v>42036</v>
       </c>
@@ -13798,7 +13797,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="23"/>
       <c r="B514" s="20" t="s">
         <v>223</v>
@@ -13818,7 +13817,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="23">
         <v>42064</v>
       </c>
@@ -13844,7 +13843,7 @@
         <v>42090</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="23"/>
       <c r="B516" s="20" t="s">
         <v>368</v>
@@ -13864,7 +13863,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="23">
         <v>42095</v>
       </c>
@@ -13888,7 +13887,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="23">
         <v>42125</v>
       </c>
@@ -13912,7 +13911,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="23"/>
       <c r="B519" s="20" t="s">
         <v>157</v>
@@ -13934,7 +13933,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="23"/>
       <c r="B520" s="20" t="s">
         <v>45</v>
@@ -13954,7 +13953,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="23"/>
       <c r="B521" s="20" t="s">
         <v>305</v>
@@ -13974,7 +13973,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="23">
         <v>42156</v>
       </c>
@@ -13998,7 +13997,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="23">
         <v>42186</v>
       </c>
@@ -14024,7 +14023,7 @@
         <v>42193</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="23"/>
       <c r="B524" s="20" t="s">
         <v>47</v>
@@ -14046,7 +14045,7 @@
         <v>42209</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="23"/>
       <c r="B525" s="20" t="s">
         <v>371</v>
@@ -14066,7 +14065,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="23">
         <v>42217</v>
       </c>
@@ -14092,7 +14091,7 @@
         <v>42244</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="23"/>
       <c r="B527" s="20" t="s">
         <v>377</v>
@@ -14112,7 +14111,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="48"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="23">
         <v>42248</v>
       </c>
@@ -14138,7 +14137,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="23"/>
       <c r="B529" s="20" t="s">
         <v>378</v>
@@ -14158,7 +14157,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="23">
         <v>42278</v>
       </c>
@@ -14184,7 +14183,7 @@
         <v>42286</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="23"/>
       <c r="B531" s="20" t="s">
         <v>47</v>
@@ -14206,7 +14205,7 @@
         <v>42296</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="23"/>
       <c r="B532" s="20" t="s">
         <v>379</v>
@@ -14226,7 +14225,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="23">
         <v>42309</v>
       </c>
@@ -14252,7 +14251,7 @@
         <v>42333</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="23"/>
       <c r="B534" s="20" t="s">
         <v>380</v>
@@ -14272,7 +14271,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="23">
         <v>42339</v>
       </c>
@@ -14298,7 +14297,7 @@
         <v>42348</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="23"/>
       <c r="B536" s="20" t="s">
         <v>62</v>
@@ -14320,7 +14319,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="23"/>
       <c r="B537" s="20" t="s">
         <v>302</v>
@@ -14340,7 +14339,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="47" t="s">
         <v>109</v>
       </c>
@@ -14362,7 +14361,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="23">
         <v>42370</v>
       </c>
@@ -14388,7 +14387,7 @@
         <v>42383</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="23"/>
       <c r="B540" s="20" t="s">
         <v>45</v>
@@ -14408,7 +14407,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="23"/>
       <c r="B541" s="20" t="s">
         <v>381</v>
@@ -14428,7 +14427,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="23">
         <v>42401</v>
       </c>
@@ -14454,7 +14453,7 @@
         <v>42402</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="23"/>
       <c r="B543" s="20" t="s">
         <v>382</v>
@@ -14474,7 +14473,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="23">
         <v>42430</v>
       </c>
@@ -14500,7 +14499,7 @@
         <v>42438</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="23"/>
       <c r="B545" s="20" t="s">
         <v>383</v>
@@ -14520,7 +14519,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="23">
         <v>42461</v>
       </c>
@@ -14546,7 +14545,7 @@
         <v>42461</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="23"/>
       <c r="B547" s="20" t="s">
         <v>168</v>
@@ -14568,7 +14567,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="23"/>
       <c r="B548" s="20" t="s">
         <v>47</v>
@@ -14590,7 +14589,7 @@
         <v>42482</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="23"/>
       <c r="B549" s="20" t="s">
         <v>45</v>
@@ -14610,7 +14609,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="23"/>
       <c r="B550" s="20" t="s">
         <v>49</v>
@@ -14632,7 +14631,7 @@
         <v>42496</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="23"/>
       <c r="B551" s="20" t="s">
         <v>387</v>
@@ -14652,7 +14651,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="23">
         <v>42491</v>
       </c>
@@ -14678,7 +14677,7 @@
         <v>42502</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="23"/>
       <c r="B553" s="20" t="s">
         <v>46</v>
@@ -14700,7 +14699,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="23"/>
       <c r="B554" s="20" t="s">
         <v>47</v>
@@ -14722,7 +14721,7 @@
         <v>42524</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="23"/>
       <c r="B555" s="20" t="s">
         <v>388</v>
@@ -14742,7 +14741,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="23">
         <v>42522</v>
       </c>
@@ -14768,7 +14767,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="23"/>
       <c r="B557" s="20" t="s">
         <v>46</v>
@@ -14790,7 +14789,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="23"/>
       <c r="B558" s="20" t="s">
         <v>389</v>
@@ -14810,7 +14809,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="23">
         <v>42552</v>
       </c>
@@ -14834,7 +14833,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="23">
         <v>42583</v>
       </c>
@@ -14860,7 +14859,7 @@
         <v>42584</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="23"/>
       <c r="B561" s="20" t="s">
         <v>391</v>
@@ -14880,7 +14879,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="23">
         <v>42614</v>
       </c>
@@ -14906,7 +14905,7 @@
         <v>42627</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="23"/>
       <c r="B563" s="20" t="s">
         <v>47</v>
@@ -14928,7 +14927,7 @@
         <v>42622</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="23">
         <v>42644</v>
       </c>
@@ -14954,7 +14953,7 @@
         <v>42662</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="23"/>
       <c r="B565" s="20" t="s">
         <v>47</v>
@@ -14976,7 +14975,7 @@
         <v>42671</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="23"/>
       <c r="B566" s="20" t="s">
         <v>397</v>
@@ -14996,7 +14995,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="23">
         <v>42675</v>
       </c>
@@ -15022,7 +15021,7 @@
         <v>42696</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="23"/>
       <c r="B568" s="20" t="s">
         <v>46</v>
@@ -15044,7 +15043,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="23"/>
       <c r="B569" s="20" t="s">
         <v>398</v>
@@ -15064,7 +15063,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="23">
         <v>42705</v>
       </c>
@@ -15090,7 +15089,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="23"/>
       <c r="B571" s="20" t="s">
         <v>399</v>
@@ -15110,7 +15109,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="23"/>
       <c r="B572" s="20" t="s">
         <v>45</v>
@@ -15130,7 +15129,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="47" t="s">
         <v>110</v>
       </c>
@@ -15152,7 +15151,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="23">
         <v>42736</v>
       </c>
@@ -15178,7 +15177,7 @@
         <v>42759</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="23"/>
       <c r="B575" s="20" t="s">
         <v>403</v>
@@ -15198,7 +15197,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="23"/>
       <c r="B576" s="20" t="s">
         <v>45</v>
@@ -15218,7 +15217,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="23"/>
       <c r="B577" s="20" t="s">
         <v>46</v>
@@ -15240,7 +15239,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="23">
         <v>42767</v>
       </c>
@@ -15260,7 +15259,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="23">
         <v>42795</v>
       </c>
@@ -15286,7 +15285,7 @@
         <v>42802</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="23"/>
       <c r="B580" s="20" t="s">
         <v>46</v>
@@ -15308,7 +15307,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="23">
         <v>42826</v>
       </c>
@@ -15334,7 +15333,7 @@
         <v>42851</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="23"/>
       <c r="B582" s="20" t="s">
         <v>45</v>
@@ -15354,7 +15353,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="23">
         <v>42856</v>
       </c>
@@ -15380,7 +15379,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="23">
         <v>42887</v>
       </c>
@@ -15406,7 +15405,7 @@
         <v>42899</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="23"/>
       <c r="B585" s="20" t="s">
         <v>47</v>
@@ -15428,7 +15427,7 @@
         <v>42909</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="23">
         <v>42917</v>
       </c>
@@ -15454,7 +15453,7 @@
         <v>42943</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="23">
         <v>42948</v>
       </c>
@@ -15480,7 +15479,7 @@
         <v>42956</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="23">
         <v>42979</v>
       </c>
@@ -15506,7 +15505,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="23"/>
       <c r="B589" s="20" t="s">
         <v>47</v>
@@ -15528,7 +15527,7 @@
         <v>42993</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="23"/>
       <c r="B590" s="20" t="s">
         <v>46</v>
@@ -15550,7 +15549,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="23"/>
       <c r="B591" s="20" t="s">
         <v>47</v>
@@ -15572,7 +15571,7 @@
         <v>43035</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="23">
         <v>43009</v>
       </c>
@@ -15592,7 +15591,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="23">
         <v>43040</v>
       </c>
@@ -15618,7 +15617,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="23"/>
       <c r="B594" s="20" t="s">
         <v>47</v>
@@ -15640,7 +15639,7 @@
         <v>43060</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="23">
         <v>43070</v>
       </c>
@@ -15666,7 +15665,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="23"/>
       <c r="B596" s="20" t="s">
         <v>45</v>
@@ -15686,7 +15685,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="23"/>
       <c r="B597" s="20" t="s">
         <v>114</v>
@@ -15708,7 +15707,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="23"/>
       <c r="B598" s="20" t="s">
         <v>128</v>
@@ -15728,7 +15727,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="47" t="s">
         <v>44</v>
       </c>
@@ -15750,7 +15749,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
         <v>43101</v>
       </c>
@@ -15774,7 +15773,7 @@
         <v>43119</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40"/>
       <c r="B601" s="20" t="s">
         <v>46</v>
@@ -15793,7 +15792,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
         <v>43132</v>
       </c>
@@ -15819,7 +15818,7 @@
         <v>43154</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40">
         <v>43160</v>
       </c>
@@ -15839,7 +15838,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
         <v>43191</v>
       </c>
@@ -15865,7 +15864,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40"/>
       <c r="B605" s="20" t="s">
         <v>47</v>
@@ -15884,7 +15883,7 @@
         <v>43206</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40">
         <v>43221</v>
       </c>
@@ -15908,7 +15907,7 @@
         <v>43224</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40"/>
       <c r="B607" s="20" t="s">
         <v>49</v>
@@ -15927,7 +15926,7 @@
         <v>43227</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40"/>
       <c r="B608" s="20" t="s">
         <v>47</v>
@@ -15946,7 +15945,7 @@
         <v>43243</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40"/>
       <c r="B609" s="20" t="s">
         <v>47</v>
@@ -15965,7 +15964,7 @@
         <v>43258</v>
       </c>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40"/>
       <c r="B610" s="20" t="s">
         <v>47</v>
@@ -15984,7 +15983,7 @@
         <v>43264</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40"/>
       <c r="B611" s="20" t="s">
         <v>47</v>
@@ -16003,7 +16002,7 @@
         <v>43280</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40">
         <v>43252</v>
       </c>
@@ -16029,7 +16028,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40">
         <v>43282</v>
       </c>
@@ -16055,7 +16054,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40">
         <v>43313</v>
       </c>
@@ -16081,7 +16080,7 @@
         <v>43334</v>
       </c>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40"/>
       <c r="B615" s="20" t="s">
         <v>47</v>
@@ -16100,7 +16099,7 @@
         <v>43348</v>
       </c>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40">
         <v>43344</v>
       </c>
@@ -16120,7 +16119,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40">
         <v>43374</v>
       </c>
@@ -16146,7 +16145,7 @@
         <v>43375</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40"/>
       <c r="B618" s="20" t="s">
         <v>54</v>
@@ -16165,7 +16164,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40">
         <v>43405</v>
       </c>
@@ -16191,7 +16190,7 @@
         <v>43411</v>
       </c>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40"/>
       <c r="B620" s="20" t="s">
         <v>47</v>
@@ -16210,7 +16209,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40">
         <v>43435</v>
       </c>
@@ -16236,7 +16235,7 @@
         <v>43441</v>
       </c>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40"/>
       <c r="B622" s="20" t="s">
         <v>52</v>
@@ -16258,7 +16257,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40"/>
       <c r="B623" s="20" t="s">
         <v>53</v>
@@ -16278,7 +16277,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="47" t="s">
         <v>58</v>
       </c>
@@ -16296,7 +16295,7 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40">
         <v>43466</v>
       </c>
@@ -16320,7 +16319,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40">
         <v>43497</v>
       </c>
@@ -16346,7 +16345,7 @@
         <v>43504</v>
       </c>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40"/>
       <c r="B627" s="20" t="s">
         <v>47</v>
@@ -16365,7 +16364,7 @@
         <v>43524</v>
       </c>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="40"/>
       <c r="B628" s="20" t="s">
         <v>47</v>
@@ -16384,7 +16383,7 @@
         <v>43509</v>
       </c>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="40">
         <v>43525</v>
       </c>
@@ -16410,7 +16409,7 @@
         <v>43532</v>
       </c>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="40">
         <v>43556</v>
       </c>
@@ -16436,7 +16435,7 @@
         <v>43565</v>
       </c>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40"/>
       <c r="B631" s="20" t="s">
         <v>45</v>
@@ -16453,7 +16452,7 @@
         <v>43592</v>
       </c>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="40">
         <v>43586</v>
       </c>
@@ -16479,7 +16478,7 @@
         <v>43593</v>
       </c>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="40"/>
       <c r="B633" s="20" t="s">
         <v>47</v>
@@ -16498,7 +16497,7 @@
         <v>43613</v>
       </c>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="40">
         <v>43617</v>
       </c>
@@ -16524,7 +16523,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="40">
         <v>43647</v>
       </c>
@@ -16550,7 +16549,7 @@
         <v>43650</v>
       </c>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40"/>
       <c r="B636" s="20" t="s">
         <v>59</v>
@@ -16569,7 +16568,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="40">
         <v>43678</v>
       </c>
@@ -16589,7 +16588,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="40">
         <v>43709</v>
       </c>
@@ -16615,7 +16614,7 @@
         <v>43718</v>
       </c>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40">
         <v>43739</v>
       </c>
@@ -16641,7 +16640,7 @@
         <v>43739</v>
       </c>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40"/>
       <c r="B640" s="20" t="s">
         <v>47</v>
@@ -16660,7 +16659,7 @@
         <v>43754</v>
       </c>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="40">
         <v>43770</v>
       </c>
@@ -16686,7 +16685,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="40"/>
       <c r="B642" s="20" t="s">
         <v>49</v>
@@ -16705,7 +16704,7 @@
         <v>43781</v>
       </c>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="40"/>
       <c r="B643" s="20" t="s">
         <v>49</v>
@@ -16722,7 +16721,7 @@
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="40"/>
       <c r="B644" s="20" t="s">
         <v>47</v>
@@ -16741,7 +16740,7 @@
         <v>43803</v>
       </c>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="40">
         <v>43800</v>
       </c>
@@ -16767,7 +16766,7 @@
         <v>43810</v>
       </c>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="40"/>
       <c r="B646" s="20" t="s">
         <v>61</v>
@@ -16787,7 +16786,7 @@
         <v>43816</v>
       </c>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="40"/>
       <c r="B647" s="20" t="s">
         <v>62</v>
@@ -16809,7 +16808,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="47" t="s">
         <v>64</v>
       </c>
@@ -16827,7 +16826,7 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="40">
         <v>43831</v>
       </c>
@@ -16853,7 +16852,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="40"/>
       <c r="B650" s="20" t="s">
         <v>65</v>
@@ -16870,7 +16869,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="40"/>
       <c r="B651" s="20" t="s">
         <v>46</v>
@@ -16889,7 +16888,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="40">
         <v>43862</v>
       </c>
@@ -16909,7 +16908,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40">
         <v>43891</v>
       </c>
@@ -16929,7 +16928,7 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="40">
         <v>43922</v>
       </c>
@@ -16949,7 +16948,7 @@
       <c r="J654" s="11"/>
       <c r="K654" s="20"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="40">
         <v>43952</v>
       </c>
@@ -16969,7 +16968,7 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="40">
         <v>43983</v>
       </c>
@@ -16989,7 +16988,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="40">
         <v>44013</v>
       </c>
@@ -17013,7 +17012,7 @@
         <v>44015</v>
       </c>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40"/>
       <c r="B658" s="20" t="s">
         <v>47</v>
@@ -17032,7 +17031,7 @@
         <v>44006</v>
       </c>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="40">
         <v>44044</v>
       </c>
@@ -17058,7 +17057,7 @@
         <v>44051</v>
       </c>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="40"/>
       <c r="B660" s="20" t="s">
         <v>68</v>
@@ -17077,7 +17076,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40">
         <v>44075</v>
       </c>
@@ -17103,7 +17102,7 @@
         <v>44090</v>
       </c>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40"/>
       <c r="B662" s="20" t="s">
         <v>47</v>
@@ -17122,7 +17121,7 @@
         <v>44118</v>
       </c>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="40">
         <v>44105</v>
       </c>
@@ -17142,7 +17141,7 @@
       <c r="J663" s="11"/>
       <c r="K663" s="20"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40">
         <v>44136</v>
       </c>
@@ -17162,7 +17161,7 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="40">
         <v>44166</v>
       </c>
@@ -17186,7 +17185,7 @@
         <v>44183</v>
       </c>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40"/>
       <c r="B666" s="20" t="s">
         <v>69</v>
@@ -17208,7 +17207,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40"/>
       <c r="B667" s="20" t="s">
         <v>46</v>
@@ -17227,7 +17226,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="47" t="s">
         <v>72</v>
       </c>
@@ -17245,7 +17244,7 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40">
         <v>44197</v>
       </c>
@@ -17265,7 +17264,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40">
         <v>44228</v>
       </c>
@@ -17291,7 +17290,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40">
         <v>44256</v>
       </c>
@@ -17311,7 +17310,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40">
         <v>44287</v>
       </c>
@@ -17331,7 +17330,7 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40">
         <v>44317</v>
       </c>
@@ -17351,7 +17350,7 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="40">
         <v>44348</v>
       </c>
@@ -17371,7 +17370,7 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="40">
         <v>44378</v>
       </c>
@@ -17391,7 +17390,7 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40">
         <v>44409</v>
       </c>
@@ -17411,7 +17410,7 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40">
         <v>44440</v>
       </c>
@@ -17431,7 +17430,7 @@
       <c r="J677" s="11"/>
       <c r="K677" s="20"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40">
         <v>44470</v>
       </c>
@@ -17451,7 +17450,7 @@
       <c r="J678" s="11"/>
       <c r="K678" s="20"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40">
         <v>44501</v>
       </c>
@@ -17473,7 +17472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="40">
         <v>44531</v>
       </c>
@@ -17497,7 +17496,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="40"/>
       <c r="B681" s="20" t="s">
         <v>75</v>
@@ -17519,7 +17518,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40"/>
       <c r="B682" s="20" t="s">
         <v>69</v>
@@ -17541,7 +17540,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="47" t="s">
         <v>80</v>
       </c>
@@ -17559,7 +17558,7 @@
       <c r="J683" s="11"/>
       <c r="K683" s="20"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40">
         <v>44562</v>
       </c>
@@ -17579,7 +17578,7 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="40">
         <v>44593</v>
       </c>
@@ -17599,7 +17598,7 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40">
         <v>44621</v>
       </c>
@@ -17619,7 +17618,7 @@
       <c r="J686" s="11"/>
       <c r="K686" s="20"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40">
         <v>44652</v>
       </c>
@@ -17643,7 +17642,7 @@
         <v>44686</v>
       </c>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="40">
         <v>44682</v>
       </c>
@@ -17669,7 +17668,7 @@
         <v>44692</v>
       </c>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="40"/>
       <c r="B689" s="20" t="s">
         <v>48</v>
@@ -17689,7 +17688,7 @@
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40">
         <v>44713</v>
       </c>
@@ -17709,7 +17708,7 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40">
         <v>44743</v>
       </c>
@@ -17729,7 +17728,7 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="40">
         <v>44774</v>
       </c>
@@ -17755,7 +17754,7 @@
         <v>44778</v>
       </c>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="40">
         <v>44805</v>
       </c>
@@ -17775,7 +17774,7 @@
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="40">
         <v>44835</v>
       </c>
@@ -17801,7 +17800,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="40"/>
       <c r="B695" s="20" t="s">
         <v>47</v>
@@ -17823,7 +17822,7 @@
         <v>44837</v>
       </c>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="40">
         <v>44866</v>
       </c>
@@ -17843,7 +17842,7 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="40">
         <v>44896</v>
       </c>
@@ -17869,7 +17868,7 @@
         <v>44902</v>
       </c>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="40"/>
       <c r="B698" s="20" t="s">
         <v>83</v>
@@ -17891,7 +17890,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="47" t="s">
         <v>81</v>
       </c>
@@ -17909,7 +17908,7 @@
       <c r="J699" s="11"/>
       <c r="K699" s="20"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="40">
         <v>44927</v>
       </c>
@@ -17929,7 +17928,7 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="40">
         <v>44958</v>
       </c>
@@ -17953,7 +17952,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="40"/>
       <c r="B702" s="20" t="s">
         <v>52</v>
@@ -17977,7 +17976,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="40">
         <v>44986</v>
       </c>
@@ -17997,7 +17996,7 @@
       <c r="J703" s="11"/>
       <c r="K703" s="20"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="40">
         <v>45017</v>
       </c>
@@ -18017,7 +18016,7 @@
       <c r="J704" s="11"/>
       <c r="K704" s="20"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="40">
         <v>45047</v>
       </c>
@@ -18037,20 +18036,22 @@
       <c r="J705" s="11"/>
       <c r="K705" s="20"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="40">
         <v>45078</v>
       </c>
       <c r="B706" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C706" s="13"/>
+      <c r="C706" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D706" s="39"/>
       <c r="E706" s="9"/>
       <c r="F706" s="20"/>
-      <c r="G706" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G706" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H706" s="39">
         <v>1</v>
@@ -18061,11 +18062,13 @@
         <v>45079</v>
       </c>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="40">
         <v>45108</v>
       </c>
-      <c r="B707" s="20"/>
+      <c r="B707" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C707" s="13"/>
       <c r="D707" s="39"/>
       <c r="E707" s="9"/>
@@ -18074,12 +18077,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H707" s="39"/>
+      <c r="H707" s="39">
+        <v>1</v>
+      </c>
       <c r="I707" s="9"/>
       <c r="J707" s="11"/>
-      <c r="K707" s="20"/>
-    </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K707" s="48">
+        <v>45125</v>
+      </c>
+    </row>
+    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="40">
         <v>45139</v>
       </c>
@@ -18097,7 +18104,7 @@
       <c r="J708" s="11"/>
       <c r="K708" s="20"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="40">
         <v>45170</v>
       </c>
@@ -18115,7 +18122,7 @@
       <c r="J709" s="11"/>
       <c r="K709" s="20"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="40">
         <v>45200</v>
       </c>
@@ -18133,7 +18140,7 @@
       <c r="J710" s="11"/>
       <c r="K710" s="20"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="40">
         <v>45231</v>
       </c>
@@ -18151,7 +18158,7 @@
       <c r="J711" s="11"/>
       <c r="K711" s="20"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="40">
         <v>45261</v>
       </c>
@@ -18184,10 +18191,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -18210,28 +18217,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -18244,7 +18251,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -18273,7 +18280,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -18297,17 +18304,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -18328,7 +18335,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -18355,7 +18362,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -18381,7 +18388,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -18407,7 +18414,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -18433,7 +18440,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -18459,7 +18466,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -18485,7 +18492,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -18511,7 +18518,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -18537,7 +18544,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -18557,7 +18564,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -18577,7 +18584,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -18597,7 +18604,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -18618,7 +18625,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -18639,7 +18646,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -18660,7 +18667,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -18681,7 +18688,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -18702,7 +18709,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -18723,7 +18730,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -18744,7 +18751,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -18765,7 +18772,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -18786,7 +18793,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -18807,7 +18814,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -18828,7 +18835,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -18849,7 +18856,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -18870,7 +18877,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -18891,7 +18898,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -18912,7 +18919,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -18933,7 +18940,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -18954,7 +18961,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -18975,7 +18982,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -18996,7 +19003,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -19017,7 +19024,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -19026,7 +19033,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -19035,7 +19042,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -19044,7 +19051,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -19053,7 +19060,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -19062,7 +19069,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -19071,7 +19078,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -19080,7 +19087,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -19089,7 +19096,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -19098,7 +19105,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -19107,7 +19114,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -19116,7 +19123,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -19125,7 +19132,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -19134,7 +19141,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -19143,7 +19150,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -19152,7 +19159,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -19161,7 +19168,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -19170,7 +19177,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -19179,7 +19186,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -19188,7 +19195,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -19197,7 +19204,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -19206,7 +19213,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -19215,7 +19222,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -19224,7 +19231,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -19233,7 +19240,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -19242,7 +19249,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -19251,7 +19258,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -19260,7 +19267,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -19269,7 +19276,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -19278,7 +19285,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
